--- a/biology/Zoologie/Clausilia/Clausilia.xlsx
+++ b/biology/Zoologie/Clausilia/Clausilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre  Clausilia  (les clausilies en français[1]) regroupe des mollusques gastéropodes de la famille des Clausiliidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Clausilia  (les clausilies en français) regroupe des mollusques gastéropodes de la famille des Clausiliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre  Clausilia  a été décrit par la malacologue français Jacques Philippe Raymond Draparnaud en 1805[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Clausilia  a été décrit par la malacologue français Jacques Philippe Raymond Draparnaud en 1805.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des sous-genres
 Clausilia (Clausilia)
 Clausilia (Strobeliella)
-Liste des espèces[3]
+Liste des espèces
 Clausilia bidentata (Strøm, 1765)
 Clausilia cruciata (Studer, 1820)
 Clausilia dubia Draparnaud, 1805
